--- a/InputFiles/CRDC/Section-C.xlsx
+++ b/InputFiles/CRDC/Section-C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\CRDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57335F4-4A5E-4537-BE0C-0A7D0A13C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD93666C-15FD-4C85-8E86-EDFAE4E9AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="-557" windowWidth="23606" windowHeight="8966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="636" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-access-disease" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>cancer-type</t>
   </si>
@@ -39,12 +39,6 @@
     <t>other-pre-cancer-type</t>
   </si>
   <si>
-    <t>open-access</t>
-  </si>
-  <si>
-    <t>control-access</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -250,6 +244,15 @@
   </si>
   <si>
     <t>data-de-identified</t>
+  </si>
+  <si>
+    <t>access-types</t>
+  </si>
+  <si>
+    <t>Open Access</t>
+  </si>
+  <si>
+    <t>Controlled Access</t>
   </si>
 </sst>
 </file>
@@ -616,394 +619,384 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
